--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N2">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q2">
-        <v>2323.79568320813</v>
+        <v>2428.22021464663</v>
       </c>
       <c r="R2">
-        <v>2323.79568320813</v>
+        <v>21853.98193181967</v>
       </c>
       <c r="S2">
-        <v>0.1025923591532761</v>
+        <v>0.1029955548442667</v>
       </c>
       <c r="T2">
-        <v>0.1025923591532761</v>
+        <v>0.1029955548442666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N3">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q3">
-        <v>2419.61763029493</v>
+        <v>2434.682416074174</v>
       </c>
       <c r="R3">
-        <v>2419.61763029493</v>
+        <v>21912.14174466757</v>
       </c>
       <c r="S3">
-        <v>0.1068227653294006</v>
+        <v>0.1032696560223768</v>
       </c>
       <c r="T3">
-        <v>0.1068227653294006</v>
+        <v>0.1032696560223767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N4">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q4">
-        <v>688.1689756817736</v>
+        <v>693.1706937211077</v>
       </c>
       <c r="R4">
-        <v>688.1689756817736</v>
+        <v>6238.536243489968</v>
       </c>
       <c r="S4">
-        <v>0.03038170662827731</v>
+        <v>0.02940157559473261</v>
       </c>
       <c r="T4">
-        <v>0.03038170662827731</v>
+        <v>0.02940157559473259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N5">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q5">
-        <v>518.2127525849476</v>
+        <v>547.488985472209</v>
       </c>
       <c r="R5">
-        <v>518.2127525849476</v>
+        <v>4927.400869249881</v>
       </c>
       <c r="S5">
-        <v>0.02287837489981303</v>
+        <v>0.02322233028524594</v>
       </c>
       <c r="T5">
-        <v>0.02287837489981303</v>
+        <v>0.02322233028524593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N6">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q6">
-        <v>1100.11365580304</v>
+        <v>1194.949426350366</v>
       </c>
       <c r="R6">
-        <v>1100.11365580304</v>
+        <v>10754.54483715329</v>
       </c>
       <c r="S6">
-        <v>0.04856849339256666</v>
+        <v>0.05068505666637188</v>
       </c>
       <c r="T6">
-        <v>0.04856849339256666</v>
+        <v>0.05068505666637187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N7">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q7">
-        <v>952.3157066092321</v>
+        <v>991.8272713899532</v>
       </c>
       <c r="R7">
-        <v>952.3157066092321</v>
+        <v>8926.445442509579</v>
       </c>
       <c r="S7">
-        <v>0.04204341875051573</v>
+        <v>0.04206941343717846</v>
       </c>
       <c r="T7">
-        <v>0.04204341875051573</v>
+        <v>0.04206941343717845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N8">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q8">
-        <v>991.5845398840482</v>
+        <v>994.4668127175451</v>
       </c>
       <c r="R8">
-        <v>991.5845398840482</v>
+        <v>8950.201314457905</v>
       </c>
       <c r="S8">
-        <v>0.04377708332179089</v>
+        <v>0.04218137240281505</v>
       </c>
       <c r="T8">
-        <v>0.04377708332179089</v>
+        <v>0.04218137240281504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N9">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q9">
-        <v>282.018823375292</v>
+        <v>283.1314860217229</v>
       </c>
       <c r="R9">
-        <v>282.018823375292</v>
+        <v>2548.183374195506</v>
       </c>
       <c r="S9">
-        <v>0.01245074023709291</v>
+        <v>0.01200932449239692</v>
       </c>
       <c r="T9">
-        <v>0.01245074023709291</v>
+        <v>0.01200932449239692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N10">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q10">
-        <v>212.3689906207856</v>
+        <v>223.6265489025994</v>
       </c>
       <c r="R10">
-        <v>212.3689906207856</v>
+        <v>2012.638940123394</v>
       </c>
       <c r="S10">
-        <v>0.009375796640050376</v>
+        <v>0.009485359006239721</v>
       </c>
       <c r="T10">
-        <v>0.009375796640050376</v>
+        <v>0.009485359006239718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N11">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O11">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P11">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q11">
-        <v>450.838049595733</v>
+        <v>488.087292016284</v>
       </c>
       <c r="R11">
-        <v>450.838049595733</v>
+        <v>4392.785628146556</v>
       </c>
       <c r="S11">
-        <v>0.01990387512908781</v>
+        <v>0.02070274398937434</v>
       </c>
       <c r="T11">
-        <v>0.01990387512908781</v>
+        <v>0.02070274398937434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N12">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O12">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P12">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q12">
-        <v>1936.678307025159</v>
+        <v>2019.153717661303</v>
       </c>
       <c r="R12">
-        <v>1936.678307025159</v>
+        <v>18172.38345895173</v>
       </c>
       <c r="S12">
-        <v>0.08550166345277968</v>
+        <v>0.08564456230616377</v>
       </c>
       <c r="T12">
-        <v>0.08550166345277968</v>
+        <v>0.08564456230616377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N13">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P13">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q13">
-        <v>2016.537430441602</v>
+        <v>2024.527273963157</v>
       </c>
       <c r="R13">
-        <v>2016.537430441602</v>
+        <v>18220.74546566841</v>
       </c>
       <c r="S13">
-        <v>0.08902733308475644</v>
+        <v>0.08587248743810115</v>
       </c>
       <c r="T13">
-        <v>0.08902733308475644</v>
+        <v>0.08587248743810114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H14">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I14">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J14">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N14">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O14">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P14">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q14">
-        <v>573.5280155657498</v>
+        <v>576.3967266060012</v>
       </c>
       <c r="R14">
-        <v>573.5280155657498</v>
+        <v>5187.570539454011</v>
       </c>
       <c r="S14">
-        <v>0.02532046710584976</v>
+        <v>0.02444848301200867</v>
       </c>
       <c r="T14">
-        <v>0.02532046710584976</v>
+        <v>0.02444848301200866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H15">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I15">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J15">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N15">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O15">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P15">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q15">
-        <v>431.8845256522388</v>
+        <v>455.2570700659044</v>
       </c>
       <c r="R15">
-        <v>431.8845256522388</v>
+        <v>4097.313630593139</v>
       </c>
       <c r="S15">
-        <v>0.01906710331232177</v>
+        <v>0.01931021504778827</v>
       </c>
       <c r="T15">
-        <v>0.01906710331232177</v>
+        <v>0.01931021504778827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H16">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I16">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J16">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N16">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O16">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P16">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q16">
-        <v>916.8474956087889</v>
+        <v>993.644053401354</v>
       </c>
       <c r="R16">
-        <v>916.8474956087889</v>
+        <v>8942.796480612185</v>
       </c>
       <c r="S16">
-        <v>0.04047754638584291</v>
+        <v>0.04214647418733886</v>
       </c>
       <c r="T16">
-        <v>0.04047754638584291</v>
+        <v>0.04214647418733885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H17">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N17">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O17">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P17">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q17">
-        <v>1893.859346759312</v>
+        <v>1985.350957523027</v>
       </c>
       <c r="R17">
-        <v>1893.859346759312</v>
+        <v>17868.15861770724</v>
       </c>
       <c r="S17">
-        <v>0.08361126569453142</v>
+        <v>0.0842107821182264</v>
       </c>
       <c r="T17">
-        <v>0.08361126569453142</v>
+        <v>0.08421078211822638</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H18">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I18">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J18">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N18">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O18">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P18">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q18">
-        <v>1971.952826072638</v>
+        <v>1990.634554832075</v>
       </c>
       <c r="R18">
-        <v>1971.952826072638</v>
+        <v>17915.71099348867</v>
       </c>
       <c r="S18">
-        <v>0.08705898458614283</v>
+        <v>0.08443489154336692</v>
       </c>
       <c r="T18">
-        <v>0.08705898458614283</v>
+        <v>0.08443489154336689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H19">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I19">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J19">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N19">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O19">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P19">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q19">
-        <v>560.8476064235717</v>
+        <v>566.74723824683</v>
       </c>
       <c r="R19">
-        <v>560.8476064235717</v>
+        <v>5100.725144221468</v>
       </c>
       <c r="S19">
-        <v>0.02476064461442967</v>
+        <v>0.02403918965322624</v>
       </c>
       <c r="T19">
-        <v>0.02476064461442967</v>
+        <v>0.02403918965322622</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H20">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I20">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J20">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N20">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O20">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P20">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q20">
-        <v>422.3357811466305</v>
+        <v>447.6355871614148</v>
       </c>
       <c r="R20">
-        <v>422.3357811466305</v>
+        <v>4028.720284452733</v>
       </c>
       <c r="S20">
-        <v>0.01864553947482044</v>
+        <v>0.01898694170719538</v>
       </c>
       <c r="T20">
-        <v>0.01864553947482044</v>
+        <v>0.01898694170719538</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H21">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I21">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J21">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N21">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O21">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P21">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q21">
-        <v>896.5764695215411</v>
+        <v>977.0094052781523</v>
       </c>
       <c r="R21">
-        <v>896.5764695215411</v>
+        <v>8793.084647503369</v>
       </c>
       <c r="S21">
-        <v>0.03958260867519303</v>
+        <v>0.0414408978138477</v>
       </c>
       <c r="T21">
-        <v>0.03958260867519303</v>
+        <v>0.04144089781384768</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H22">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I22">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J22">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N22">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O22">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P22">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q22">
-        <v>359.5123201878192</v>
+        <v>419.1907062023732</v>
       </c>
       <c r="R22">
-        <v>359.5123201878192</v>
+        <v>3772.716355821359</v>
       </c>
       <c r="S22">
-        <v>0.01587197073273541</v>
+        <v>0.0177804216892892</v>
       </c>
       <c r="T22">
-        <v>0.01587197073273541</v>
+        <v>0.0177804216892892</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H23">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I23">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J23">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N23">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O23">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P23">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q23">
-        <v>374.3368466171526</v>
+        <v>420.3062947983724</v>
       </c>
       <c r="R23">
-        <v>374.3368466171526</v>
+        <v>3782.756653185352</v>
       </c>
       <c r="S23">
-        <v>0.01652645303111706</v>
+        <v>0.01782774057154288</v>
       </c>
       <c r="T23">
-        <v>0.01652645303111706</v>
+        <v>0.01782774057154287</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H24">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I24">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J24">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N24">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O24">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P24">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q24">
-        <v>106.4659973836738</v>
+        <v>119.6640695382835</v>
       </c>
       <c r="R24">
-        <v>106.4659973836738</v>
+        <v>1076.976625844552</v>
       </c>
       <c r="S24">
-        <v>0.00470032624646172</v>
+        <v>0.005075679364942615</v>
       </c>
       <c r="T24">
-        <v>0.00470032624646172</v>
+        <v>0.005075679364942612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H25">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I25">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J25">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N25">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O25">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P25">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q25">
-        <v>80.17222442531086</v>
+        <v>94.51461324380534</v>
       </c>
       <c r="R25">
-        <v>80.17222442531086</v>
+        <v>850.6315191942481</v>
       </c>
       <c r="S25">
-        <v>0.003539492607630371</v>
+        <v>0.00400893830519142</v>
       </c>
       <c r="T25">
-        <v>0.003539492607630371</v>
+        <v>0.004008938305191419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H26">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I26">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J26">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N26">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O26">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P26">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q26">
-        <v>170.1975848074727</v>
+        <v>206.287589110128</v>
       </c>
       <c r="R26">
-        <v>170.1975848074727</v>
+        <v>1856.588301991152</v>
       </c>
       <c r="S26">
-        <v>0.007513987513516058</v>
+        <v>0.008749908500772322</v>
       </c>
       <c r="T26">
-        <v>0.007513987513516058</v>
+        <v>0.00874990850077232</v>
       </c>
     </row>
   </sheetData>
